--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Year.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Year.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793DCAE-C596-4577-9F61-82106355C552}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618250F-6CAA-4152-97D2-637E6372A252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="description (รายละเอียด)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>company_code</t>
   </si>
@@ -54,20 +55,45 @@
     <t>year_group</t>
   </si>
   <si>
-    <t>11.07.2023</t>
-  </si>
-  <si>
     <t>TAX</t>
   </si>
   <si>
-    <t>20.07.2023</t>
+    <t>เลขที่  (null)</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
+  </si>
+  <si>
+    <t>ชื่อ ภาษาอังกฤษ ความยาวไม่เกิน 200  ตัว</t>
+  </si>
+  <si>
+    <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>จากวันที่</t>
+  </si>
+  <si>
+    <t>ถึงวันที่</t>
+  </si>
+  <si>
+    <t>รหัส สถาบัน
+ความยาวไม่เกิน ภ ตัว</t>
+  </si>
+  <si>
+    <t>TAX ,LEAVE, ACCOUNT,BUDGET</t>
+  </si>
+  <si>
+    <t>Tax Calendar</t>
+  </si>
+  <si>
+    <t>ปีภาษี</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,8 +115,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,8 +147,14 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,29 +162,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -447,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,57 +559,135 @@
     <col min="16" max="16" width="20.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1784C297-42D1-4746-AB87-2118421222F4}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.08984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.90625" style="5" customWidth="1"/>
+    <col min="3" max="8" width="23.08984375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" s="11">
+        <v>2022</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="10">
+        <v>44927</v>
+      </c>
+      <c r="H3" s="10">
+        <v>45291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Year.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2618250F-6CAA-4152-97D2-637E6372A252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B36782-9010-455A-B256-98652C32AB11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>company_code</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>TAX</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
@@ -87,6 +84,15 @@
   </si>
   <si>
     <t>ปีภาษี</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,6 +217,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -535,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1784C297-42D1-4746-AB87-2118421222F4}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,35 +627,38 @@
     <col min="1" max="1" width="23.08984375" style="5" customWidth="1"/>
     <col min="2" max="2" width="37.90625" style="5" customWidth="1"/>
     <col min="3" max="8" width="23.08984375" style="5" customWidth="1"/>
+    <col min="10" max="11" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,8 +683,14 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -675,10 +702,10 @@
         <v>2022</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="10">
         <v>44927</v>
@@ -688,6 +715,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>